--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/37.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/37.xlsx
@@ -479,13 +479,13 @@
         <v>-20.85689610114365</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.19510950083227</v>
+        <v>-14.17689810757943</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4896548401196471</v>
+        <v>-0.5048942806274161</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.50374780691045</v>
+        <v>-10.47946158513905</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.17462646574066</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.39870790232395</v>
+        <v>-14.38229015456043</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.477897952167777</v>
+        <v>-0.4952059765245389</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.25492859140344</v>
+        <v>-10.23227890748726</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.39655767473858</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.71738764579441</v>
+        <v>-14.69941191399272</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4020411495028162</v>
+        <v>-0.4179613897583551</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.834796593212456</v>
+        <v>-9.810143786961486</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.59158349530747</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.17838072115443</v>
+        <v>-15.15865062077194</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3389362498056965</v>
+        <v>-0.3572000122699044</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.619140180803544</v>
+        <v>-9.593426898022393</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.76433113687414</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.62518174023401</v>
+        <v>-15.60406385575031</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3236575323894022</v>
+        <v>-0.3410441105632144</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.430741942911105</v>
+        <v>-9.403955091296934</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.94964583191487</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.10477897793212</v>
+        <v>-16.08034874082946</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3344194053253011</v>
+        <v>-0.3570952738471706</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.289292703009098</v>
+        <v>-9.262715328240393</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.15251262344115</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.61307454345929</v>
+        <v>-16.5858425535485</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1199413001721446</v>
+        <v>-0.1402736464853452</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.086833331864645</v>
+        <v>-9.060373787821517</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.3789823371154</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.24036604951491</v>
+        <v>-17.20952058401981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0842593472502569</v>
+        <v>0.06125617115734419</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.110988630607629</v>
+        <v>-9.084070855965042</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.63916322292072</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.66526364594029</v>
+        <v>-17.63231031968767</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2048918256339209</v>
+        <v>0.1847427715605045</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.795346301396457</v>
+        <v>-8.769541372495414</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.93176382574656</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.19843458686674</v>
+        <v>-18.16291516925714</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3307481328514336</v>
+        <v>0.3106121710808589</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.719895360119589</v>
+        <v>-8.693069231596892</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.25305574100344</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.72117096242834</v>
+        <v>-18.68477436052834</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4163979780420055</v>
+        <v>0.3936304634002439</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.21860417661274</v>
+        <v>-8.191424555913317</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.58801386521983</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.48493663330612</v>
+        <v>-19.44677257052248</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5549930959245177</v>
+        <v>0.5305497665190151</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.632880732079599</v>
+        <v>-7.602297112641327</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.9444116347614</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.31038014287126</v>
+        <v>-20.27198041863648</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7988634209573492</v>
+        <v>0.7716445233494007</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.061519543763831</v>
+        <v>-7.026759479719049</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.30937520440385</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.10736098605849</v>
+        <v>-21.06799243141342</v>
       </c>
       <c r="F15" t="n">
-        <v>0.881122359711914</v>
+        <v>0.8527906163624188</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.51994334441299</v>
+        <v>-6.481530527875367</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.67083943383956</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.99423358055702</v>
+        <v>-21.95593859474497</v>
       </c>
       <c r="F16" t="n">
-        <v>1.128239575849494</v>
+        <v>1.098768802152768</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.017788068918588</v>
+        <v>-5.982137728280567</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.02493690766608</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.632496436394</v>
+        <v>-22.59511791178087</v>
       </c>
       <c r="F17" t="n">
-        <v>1.306111602257184</v>
+        <v>1.276182597960998</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.897810205677009</v>
+        <v>-5.860955373177551</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.372715372684439</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.41486626960987</v>
+        <v>-23.37640108386088</v>
       </c>
       <c r="F18" t="n">
-        <v>1.633209696454868</v>
+        <v>1.600059985659618</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.499607814745911</v>
+        <v>-5.462857720669186</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.71189228920724</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.21632468036897</v>
+        <v>-24.17609203373635</v>
       </c>
       <c r="F19" t="n">
-        <v>1.885000864706944</v>
+        <v>1.851379831009391</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.244163894000994</v>
+        <v>-5.209141983899377</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.039074601820174</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.96803234032952</v>
+        <v>-24.92774732448553</v>
       </c>
       <c r="F20" t="n">
-        <v>2.10903635093456</v>
+        <v>2.075493871054058</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.013451333324097</v>
+        <v>-4.974161332496077</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.369471867436173</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.54753694101284</v>
+        <v>-25.50708172523191</v>
       </c>
       <c r="F21" t="n">
-        <v>2.462476158449797</v>
+        <v>2.430216724247784</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.755336582799468</v>
+        <v>-4.718651950236951</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.710082184892447</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.12459328106475</v>
+        <v>-26.08381075771278</v>
       </c>
       <c r="F22" t="n">
-        <v>2.747757437371008</v>
+        <v>2.718352125188491</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.474611425267177</v>
+        <v>-4.433056456047539</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.069500080768891</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.6226506657697</v>
+        <v>-26.58370106481556</v>
       </c>
       <c r="F23" t="n">
-        <v>2.943565918671863</v>
+        <v>2.914658113997332</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.319624744226824</v>
+        <v>-4.279653943651034</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.457315379994885</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.83889623180649</v>
+        <v>-26.79947530795005</v>
       </c>
       <c r="F24" t="n">
-        <v>3.07058744084229</v>
+        <v>3.041365420899557</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.141242118008306</v>
+        <v>-4.100695256107481</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.892409942414306</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.14139388896457</v>
+        <v>-27.10322982618094</v>
       </c>
       <c r="F25" t="n">
-        <v>3.377889973143284</v>
+        <v>3.348379922538034</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.885078120607094</v>
+        <v>-3.845879765898967</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.384140136925376</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.10888570100856</v>
+        <v>-27.07100966888745</v>
       </c>
       <c r="F26" t="n">
-        <v>3.461471234484863</v>
+        <v>3.429159431071483</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.847359196120081</v>
+        <v>-3.806655226585155</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.939018570239938</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.03656382011087</v>
+        <v>-26.99997083366824</v>
       </c>
       <c r="F27" t="n">
-        <v>3.469693200669467</v>
+        <v>3.439397611893713</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.783652050492242</v>
+        <v>-3.747307817803611</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.568974359871148</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.95206609757037</v>
+        <v>-26.91426861926631</v>
       </c>
       <c r="F28" t="n">
-        <v>3.528948963331119</v>
+        <v>3.501507496574861</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.777969991058933</v>
+        <v>-3.744453695784114</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.278022020745057</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.80410998315602</v>
+        <v>-26.76866911936347</v>
       </c>
       <c r="F29" t="n">
-        <v>3.53866345203968</v>
+        <v>3.511981338848242</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.701615680885987</v>
+        <v>-3.669657369649333</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.066824030677838</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.68698624193394</v>
+        <v>-26.65257967006589</v>
       </c>
       <c r="F30" t="n">
-        <v>3.50787035575594</v>
+        <v>3.48359722628738</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.66083315753401</v>
+        <v>-3.629084323142824</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.92924478112524</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.28081063857223</v>
+        <v>-26.24777875850256</v>
       </c>
       <c r="F31" t="n">
-        <v>3.400251626396952</v>
+        <v>3.377313911818248</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.844125397318175</v>
+        <v>-3.815675823243105</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.865041734485697</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.9465117778116</v>
+        <v>-25.91499860487156</v>
       </c>
       <c r="F32" t="n">
-        <v>3.350343767964292</v>
+        <v>3.328715283669761</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.933519641121481</v>
+        <v>-3.905423559223137</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.86327962686897</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.527505717665</v>
+        <v>-25.4960056370278</v>
       </c>
       <c r="F33" t="n">
-        <v>3.229292335889693</v>
+        <v>3.20810898989178</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.072337328152302</v>
+        <v>-4.051481289725433</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.915425614104131</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.06989045643815</v>
+        <v>-25.03942466772545</v>
       </c>
       <c r="F34" t="n">
-        <v>3.146103843633365</v>
+        <v>3.12657012779351</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.986347083087845</v>
+        <v>-3.968855766491299</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.014903145001337</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.71185525062546</v>
+        <v>-24.68314383049356</v>
       </c>
       <c r="F35" t="n">
-        <v>2.893003445097117</v>
+        <v>2.872972221749276</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.079813033074927</v>
+        <v>-4.065450776857555</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.153231324024651</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.01760970783726</v>
+        <v>-23.98871499546556</v>
       </c>
       <c r="F36" t="n">
-        <v>2.767134045576763</v>
+        <v>2.750375897939354</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.393386778437109</v>
+        <v>-4.380608690863584</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.320321090773557</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.58473889898126</v>
+        <v>-23.55748072446479</v>
       </c>
       <c r="F37" t="n">
-        <v>2.613508964031949</v>
+        <v>2.595912909012669</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.466219259145631</v>
+        <v>-4.456256016683078</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.506990168596343</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.20854466912711</v>
+        <v>-23.18267427871186</v>
       </c>
       <c r="F38" t="n">
-        <v>2.555091108752167</v>
+        <v>2.538018745846557</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.574937741943324</v>
+        <v>-4.563717638407965</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.709101640996397</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.73072798461547</v>
+        <v>-22.70563004006788</v>
       </c>
       <c r="F39" t="n">
-        <v>2.515788015621306</v>
+        <v>2.49829669902476</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.504828460225881</v>
+        <v>-4.495703125145198</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.918498733923561</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.37023142586855</v>
+        <v>-22.34594520409714</v>
       </c>
       <c r="F40" t="n">
-        <v>2.504685742811522</v>
+        <v>2.483633319842026</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.554998164715375</v>
+        <v>-4.548150890329152</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.137384771078337</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.85397574021361</v>
+        <v>-21.83020011825303</v>
       </c>
       <c r="F41" t="n">
-        <v>2.585360512922238</v>
+        <v>2.566559966041519</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.486093374859371</v>
+        <v>-4.479350838895882</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.368737004001701</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.23313873945895</v>
+        <v>-21.21132696292464</v>
       </c>
       <c r="F42" t="n">
-        <v>2.709213697804967</v>
+        <v>2.691460535151586</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.498151385776601</v>
+        <v>-4.49085897309376</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.616874538344597</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.58088021188416</v>
+        <v>-20.5594612044351</v>
       </c>
       <c r="F43" t="n">
-        <v>2.820393533536905</v>
+        <v>2.802378524826689</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.494786663946277</v>
+        <v>-4.485844621105378</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.884805430526703</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.32544938344209</v>
+        <v>-20.30522177555162</v>
       </c>
       <c r="F44" t="n">
-        <v>2.768364722043885</v>
+        <v>2.75178986664626</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.57673138743264</v>
+        <v>-4.568862913424764</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.180922943884081</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.88464463906401</v>
+        <v>-19.86604047672592</v>
       </c>
       <c r="F45" t="n">
-        <v>2.848096846349997</v>
+        <v>2.829872360794314</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.558375978848541</v>
+        <v>-4.551711996702102</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.513386360875645</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.53343052303187</v>
+        <v>-19.5139884533119</v>
       </c>
       <c r="F46" t="n">
-        <v>2.888761538976398</v>
+        <v>2.870982191717334</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.654957896911954</v>
+        <v>-4.652588190097601</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.880793353089497</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.04864873340843</v>
+        <v>-19.03130143214315</v>
       </c>
       <c r="F47" t="n">
-        <v>2.919921219739706</v>
+        <v>2.902953595256829</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.964446843787517</v>
+        <v>-4.963478013377228</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.28940541245096</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.59166190271799</v>
+        <v>-18.5749430319891</v>
       </c>
       <c r="F48" t="n">
-        <v>2.883891202319276</v>
+        <v>2.868180438909205</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.090263874096504</v>
+        <v>-5.089674720468627</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.740535930180752</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.125785398398</v>
+        <v>-18.10626477486099</v>
       </c>
       <c r="F49" t="n">
-        <v>2.912249130274454</v>
+        <v>2.896852582132585</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.344765149036817</v>
+        <v>-5.342958411244659</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.233525754677874</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.63704973331637</v>
+        <v>-17.61844557097828</v>
       </c>
       <c r="F50" t="n">
-        <v>2.968886432367762</v>
+        <v>2.950452469966611</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.426578949494763</v>
+        <v>-5.430689932587065</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.756992402184105</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.94826368081316</v>
+        <v>-16.92879542648752</v>
       </c>
       <c r="F51" t="n">
-        <v>2.948567178357403</v>
+        <v>2.92882398567208</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.643282746131013</v>
+        <v>-5.647524652251732</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.307552046862812</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.57155885114818</v>
+        <v>-16.55265356584473</v>
       </c>
       <c r="F52" t="n">
-        <v>2.82680876192935</v>
+        <v>2.808819937824818</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.795061812975144</v>
+        <v>-5.794328644016007</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.876333304878436</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.14973794589061</v>
+        <v>-16.12969363023992</v>
       </c>
       <c r="F53" t="n">
-        <v>2.893658060239204</v>
+        <v>2.876821358784744</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852393007119062</v>
+        <v>-5.852628668570213</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.447001569789435</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.87833450798163</v>
+        <v>-15.85563245485407</v>
       </c>
       <c r="F54" t="n">
-        <v>2.649669904480796</v>
+        <v>2.633592556591157</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.08379945984657</v>
+        <v>-6.085972782118296</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.00606802132963</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.54334175517038</v>
+        <v>-15.51904244109614</v>
       </c>
       <c r="F55" t="n">
-        <v>2.488870240978717</v>
+        <v>2.472321570186775</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.294114212696058</v>
+        <v>-6.298696518690662</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.54239004406982</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.14071416587878</v>
+        <v>-15.11379639123619</v>
       </c>
       <c r="F56" t="n">
-        <v>2.434013492071885</v>
+        <v>2.417386267462893</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.496861614503027</v>
+        <v>-6.497620968067848</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.04783331713447</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.60023771996664</v>
+        <v>-14.57354251447236</v>
       </c>
       <c r="F57" t="n">
-        <v>2.394186706827354</v>
+        <v>2.374836283227283</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.763381623452045</v>
+        <v>-6.764455192285067</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.5041469499418</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.35270155013813</v>
+        <v>-14.32438289909147</v>
       </c>
       <c r="F58" t="n">
-        <v>2.21696929556175</v>
+        <v>2.196964256819593</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721158946787479</v>
+        <v>-6.721590992781255</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.9104831380931</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.9785235349216</v>
+        <v>-13.94914440734476</v>
       </c>
       <c r="F59" t="n">
-        <v>2.271302352354913</v>
+        <v>2.248731222255778</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.856795204227761</v>
+        <v>-6.858143711420459</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.26208922769314</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.8687052986852</v>
+        <v>-13.83737541798495</v>
       </c>
       <c r="F60" t="n">
-        <v>2.090654757744777</v>
+        <v>2.068083627645641</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821498355766467</v>
+        <v>-6.821419801949417</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.55824949937226</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.53953862063852</v>
+        <v>-13.50875861665762</v>
       </c>
       <c r="F61" t="n">
-        <v>1.969367664219027</v>
+        <v>1.946534688063056</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.155286616716273</v>
+        <v>-7.152576510028036</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.79479296878457</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.24294559206206</v>
+        <v>-13.20893178927926</v>
       </c>
       <c r="F62" t="n">
-        <v>1.891965969818742</v>
+        <v>1.868007055618383</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192115264610049</v>
+        <v>-7.19265204902656</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.9755413770218</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.91596532858995</v>
+        <v>-12.88167658744747</v>
       </c>
       <c r="F63" t="n">
-        <v>1.823336118322414</v>
+        <v>1.799534311756156</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.316452864697921</v>
+        <v>-7.314253357820511</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.10675334488789</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.67498840248514</v>
+        <v>-12.63877509282493</v>
       </c>
       <c r="F64" t="n">
-        <v>1.708857022274361</v>
+        <v>1.684138754509182</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.492531245616295</v>
+        <v>-7.496039982777877</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.18696180665845</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.46413686521914</v>
+        <v>-12.42715110969127</v>
       </c>
       <c r="F65" t="n">
-        <v>1.624359299733861</v>
+        <v>1.605296906796308</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730942080364127</v>
+        <v>-7.730549311278875</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.22293311290268</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.22905147539311</v>
+        <v>-12.19137182781462</v>
       </c>
       <c r="F66" t="n">
-        <v>1.555493786786382</v>
+        <v>1.536352840031779</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.84830148303736</v>
+        <v>-7.850540266823295</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.21652197499313</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.04890138829096</v>
+        <v>-12.0108551562329</v>
       </c>
       <c r="F67" t="n">
-        <v>1.616556287240192</v>
+        <v>1.589717066414654</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.818437940255382</v>
+        <v>-7.816814494703008</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.17878833212471</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.96041051338373</v>
+        <v>-11.92097649722445</v>
       </c>
       <c r="F68" t="n">
-        <v>1.470969879640199</v>
+        <v>1.449315210739984</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.825966014389374</v>
+        <v>-7.828191705872468</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.10762373512016</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.81199616836993</v>
+        <v>-11.77227412154813</v>
       </c>
       <c r="F69" t="n">
-        <v>1.367566871796246</v>
+        <v>1.340099220434305</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.898549741343904</v>
+        <v>-7.900788525129839</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.00953435040305</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.71537497339799</v>
+        <v>-11.67299518909932</v>
       </c>
       <c r="F70" t="n">
-        <v>1.412263993697899</v>
+        <v>1.386472157099699</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.838586994328798</v>
+        <v>-7.84193862385628</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.88912967667146</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.44592228861242</v>
+        <v>-11.40485173459793</v>
       </c>
       <c r="F71" t="n">
-        <v>1.351699000752074</v>
+        <v>1.325304918223154</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.687056681238661</v>
+        <v>-7.695422662754524</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.75146570054405</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.38924570961059</v>
+        <v>-11.34858101698419</v>
       </c>
       <c r="F72" t="n">
-        <v>1.401345013127899</v>
+        <v>1.376443453122936</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.693000586728805</v>
+        <v>-7.699245615184308</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.59814308343656</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.34793949414495</v>
+        <v>-11.31712021325552</v>
       </c>
       <c r="F73" t="n">
-        <v>1.374767638359195</v>
+        <v>1.349761339931499</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.569081940331867</v>
+        <v>-7.580432966895644</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.43049563795517</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.54381343696001</v>
+        <v>-11.51277158692228</v>
       </c>
       <c r="F74" t="n">
-        <v>1.42069543672797</v>
+        <v>1.396474676470777</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.458163950656764</v>
+        <v>-7.467354747251655</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.25911171185449</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.67262860461975</v>
+        <v>-11.64144273925076</v>
       </c>
       <c r="F75" t="n">
-        <v>1.352563092739628</v>
+        <v>1.328316147876751</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.330880582429503</v>
+        <v>-7.338094441295294</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.08137883130739</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.00610265030136</v>
+        <v>-11.97761379931776</v>
       </c>
       <c r="F76" t="n">
-        <v>1.376050684037684</v>
+        <v>1.353374815515815</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.127491657783289</v>
+        <v>-7.139850791665879</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.90499204433313</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.61678002405083</v>
+        <v>-12.58954803414004</v>
       </c>
       <c r="F77" t="n">
-        <v>1.350939647187254</v>
+        <v>1.327635348128982</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.96214896519513</v>
+        <v>-6.970606592830885</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.7307676080759</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.14451765929796</v>
+        <v>-13.11855562276282</v>
       </c>
       <c r="F78" t="n">
-        <v>1.380083113312936</v>
+        <v>1.35599327608416</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.833085043781395</v>
+        <v>-6.836358119491826</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.57043600253773</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.63968164507489</v>
+        <v>-13.61395526999089</v>
       </c>
       <c r="F79" t="n">
-        <v>1.439024660706387</v>
+        <v>1.415432330985597</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.661903184125826</v>
+        <v>-6.662492337753704</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.42321347747044</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.19736137692105</v>
+        <v>-14.17197540171094</v>
       </c>
       <c r="F80" t="n">
-        <v>1.420904913573438</v>
+        <v>1.400638028774446</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.390748499970837</v>
+        <v>-6.394231052526737</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.29228320525288</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.98106662502677</v>
+        <v>-14.9560996035076</v>
       </c>
       <c r="F81" t="n">
-        <v>1.485214305131997</v>
+        <v>1.463716743865882</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.278154695531994</v>
+        <v>-6.279686494964476</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.18376304074059</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.73397877684875</v>
+        <v>-15.7098627550143</v>
       </c>
       <c r="F82" t="n">
-        <v>1.51535278627365</v>
+        <v>1.495949993462212</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.192295373495954</v>
+        <v>-6.194350865042105</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.09577800651896</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6030982086939</v>
+        <v>-16.5787203408026</v>
       </c>
       <c r="F83" t="n">
-        <v>1.472855171249407</v>
+        <v>1.452588286450415</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.930554055084166</v>
+        <v>-5.933814038491756</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.02750372416012</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.67290955079986</v>
+        <v>-17.6491077442336</v>
       </c>
       <c r="F84" t="n">
-        <v>1.553399018331706</v>
+        <v>1.535619671072642</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.746463184826657</v>
+        <v>-5.747104707665901</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.97183468962053</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.48429192711299</v>
+        <v>-18.46090907423767</v>
       </c>
       <c r="F85" t="n">
-        <v>1.546721943882426</v>
+        <v>1.527764289367606</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.542576752672456</v>
+        <v>-5.540848568697348</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.93130445105479</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.57494621534298</v>
+        <v>-19.54949477861867</v>
       </c>
       <c r="F86" t="n">
-        <v>1.541956345648037</v>
+        <v>1.523260537190052</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.243312894316282</v>
+        <v>-5.242985586745238</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.89398911181883</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.63463720735229</v>
+        <v>-20.60896320147966</v>
       </c>
       <c r="F87" t="n">
-        <v>1.554603510193145</v>
+        <v>1.542715699212857</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.96667253527061</v>
+        <v>-4.969369549656006</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.85408250555259</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.99590939532076</v>
+        <v>-21.97092928149874</v>
       </c>
       <c r="F88" t="n">
-        <v>1.608936566986308</v>
+        <v>1.595608602693431</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.660024618111702</v>
+        <v>-4.659959156597493</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.80369689340967</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.45824106892451</v>
+        <v>-23.43619363093904</v>
       </c>
       <c r="F89" t="n">
-        <v>1.406110611362288</v>
+        <v>1.390295109529483</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.318040575582975</v>
+        <v>-4.31952000580409</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.73763509610262</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.94588016392132</v>
+        <v>-24.92451352568362</v>
       </c>
       <c r="F90" t="n">
-        <v>1.253951867735747</v>
+        <v>1.240362057386036</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.128909168731401</v>
+        <v>-4.127665399961437</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.64521069750398</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.59932018210574</v>
+        <v>-26.57832012834761</v>
       </c>
       <c r="F91" t="n">
-        <v>1.086802437355431</v>
+        <v>1.0745873188041</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.086647215158309</v>
+        <v>-4.087524399448704</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.51565593007502</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.29466866168654</v>
+        <v>-28.27733445272409</v>
       </c>
       <c r="F92" t="n">
-        <v>1.000092115634679</v>
+        <v>0.9891731350646793</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.839464537506521</v>
+        <v>-3.841166536875945</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.34634791169897</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.18558996111703</v>
+        <v>-30.16977445928423</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8762127461462668</v>
+        <v>0.865830549992778</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.878610523003282</v>
+        <v>-3.882053798650655</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.12716462143823</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.32357610747374</v>
+        <v>-32.30993392791266</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7837810880836807</v>
+        <v>0.7741713377978537</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.913763356133316</v>
+        <v>-3.918699154304647</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.855904603820102</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.41225664132851</v>
+        <v>-34.40070923022211</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3730624556358922</v>
+        <v>0.3632170438989142</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.916617478152812</v>
+        <v>-3.922194799163388</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.523337100584325</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.42807850986907</v>
+        <v>-36.41818072892072</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09567583532824203</v>
+        <v>0.08387967046784683</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.095183396611114</v>
+        <v>-4.099490764246042</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.141472990899501</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.55975416625607</v>
+        <v>-38.55142746164873</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2343942116145139</v>
+        <v>-0.2443181771685422</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.176682981800859</v>
+        <v>-4.184067040603592</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.702922469843223</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89810491530255</v>
+        <v>-40.89396774760457</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4946168228966612</v>
+        <v>-0.5063606185456895</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.382899843860886</v>
+        <v>-4.390506471811929</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.225378661845161</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.3197488950281</v>
+        <v>-43.31715661906544</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4114806998517007</v>
+        <v>-0.4231066647751534</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.702954279129722</v>
+        <v>-4.710246691812563</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.701698658925466</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79950960706807</v>
+        <v>-45.79962743779364</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5629324591247878</v>
+        <v>-0.5702903333218379</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.94414068208</v>
+        <v>-4.953527863217517</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.174861260143767</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20231376300437</v>
+        <v>-48.2025756090612</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5843645588766934</v>
+        <v>-0.5948253088472325</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.297266274327034</v>
+        <v>-5.309402839061315</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.605361868519045</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.48989256163064</v>
+        <v>-50.49275977595298</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7096317124663284</v>
+        <v>-0.719306924266364</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.618420463034576</v>
+        <v>-5.629221612878999</v>
       </c>
     </row>
   </sheetData>
